--- a/file/archives/ranking - 9.xlsx
+++ b/file/archives/ranking - 9.xlsx
@@ -1,908 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckkil\Documents\GitHub\cs-tools\file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F1415A-FFCA-493B-9A2E-F3FC5DBA7FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="ranking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="292">
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Victories</t>
-  </si>
-  <si>
-    <t>Streak</t>
-  </si>
-  <si>
-    <t>Loses</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Majors</t>
-  </si>
-  <si>
-    <t>Prestige</t>
-  </si>
-  <si>
-    <t>Tournaments Trophies</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>BonusType</t>
-  </si>
-  <si>
-    <t>BonusRemaining</t>
-  </si>
-  <si>
-    <t>LastUpdated</t>
-  </si>
-  <si>
-    <t>Nemiga</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>AS/SIS/ESEA</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:25:34.846Z</t>
-  </si>
-  <si>
-    <t>Copenhagen Flames</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:25:24.539Z</t>
-  </si>
-  <si>
-    <t>The MongolZ</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:26:53.723Z</t>
-  </si>
-  <si>
-    <t>Eternal Fire</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:27:11.333Z</t>
-  </si>
-  <si>
-    <t>Elevate</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:27:04.015Z</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:38:43.524Z</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:33:35.840Z</t>
-  </si>
-  <si>
-    <t>Heroic</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:09.005Z</t>
-  </si>
-  <si>
-    <t>Natus Vincere</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:09.337Z</t>
-  </si>
-  <si>
-    <t>PARIVISION</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:05.741Z</t>
-  </si>
-  <si>
-    <t>Spirit</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:50:50.205Z</t>
-  </si>
-  <si>
-    <t>Iluminar</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:03.003Z</t>
-  </si>
-  <si>
-    <t>Onyx Ravens</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:29:12.362Z</t>
-  </si>
-  <si>
-    <t>Cloud9</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:29:23.298Z</t>
-  </si>
-  <si>
-    <t>Titan</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:29:28.854Z</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:54:33.737Z</t>
-  </si>
-  <si>
-    <t>Verdant</t>
-  </si>
-  <si>
-    <t>Bounty Hunters</t>
-  </si>
-  <si>
-    <t>BESTIA</t>
-  </si>
-  <si>
-    <t>The Huns</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:06.168Z</t>
-  </si>
-  <si>
-    <t>TYLOO</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:09:16.526Z</t>
-  </si>
-  <si>
-    <t>OG</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:09:03.691Z</t>
-  </si>
-  <si>
-    <t>Rebels</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:28:46.129Z</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:27:33.007Z</t>
-  </si>
-  <si>
-    <t>hoorai</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:28:39.809Z</t>
-  </si>
-  <si>
-    <t>00 Nation</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>100 Thieves</t>
-  </si>
-  <si>
-    <t>Aether</t>
-  </si>
-  <si>
-    <t>AMKAL</t>
-  </si>
-  <si>
-    <t>Astana Dragons</t>
-  </si>
-  <si>
-    <t>Astralis Talent</t>
-  </si>
-  <si>
-    <t>Avangar</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>BIG Academy</t>
-  </si>
-  <si>
-    <t>Bravado</t>
-  </si>
-  <si>
-    <t>Copenhagen Wolves</t>
-  </si>
-  <si>
-    <t>Counter Logic Games</t>
-  </si>
-  <si>
-    <t>ENCE Academy</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>FLuffy Gangsters</t>
-  </si>
-  <si>
-    <t>FlyQuest RED</t>
-  </si>
-  <si>
-    <t>Fnatic</t>
-  </si>
-  <si>
-    <t>FORZE</t>
-  </si>
-  <si>
-    <t>Gambit</t>
-  </si>
-  <si>
-    <t>GATERON</t>
-  </si>
-  <si>
-    <t>GhoulsW</t>
-  </si>
-  <si>
-    <t>HAVU</t>
-  </si>
-  <si>
-    <t>Heroic Academy</t>
-  </si>
-  <si>
-    <t>Hesta</t>
-  </si>
-  <si>
-    <t>Immortals</t>
-  </si>
-  <si>
-    <t>Into the Beach</t>
-  </si>
-  <si>
-    <t>Kinguin</t>
-  </si>
-  <si>
-    <t>kONO</t>
-  </si>
-  <si>
-    <t>MAD Lions</t>
-  </si>
-  <si>
-    <t>MANA</t>
-  </si>
-  <si>
-    <t>MIBR Academy</t>
-  </si>
-  <si>
-    <t>Misfits</t>
-  </si>
-  <si>
-    <t>mousesports</t>
-  </si>
-  <si>
-    <t>MOUZ NXT</t>
-  </si>
-  <si>
-    <t>Movistar KOI</t>
-  </si>
-  <si>
-    <t>NIP Impact</t>
-  </si>
-  <si>
-    <t>Nordix</t>
-  </si>
-  <si>
-    <t>NOVAQ</t>
-  </si>
-  <si>
-    <t>paiN Academy</t>
-  </si>
-  <si>
-    <t>QMISTRY</t>
-  </si>
-  <si>
-    <t>Quantum Bellator Fire</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>Shika</t>
-  </si>
-  <si>
-    <t>SKYFURY</t>
-  </si>
-  <si>
-    <t>Space Soldiers</t>
-  </si>
-  <si>
-    <t>Sprout</t>
-  </si>
-  <si>
-    <t>Tsunami</t>
-  </si>
-  <si>
-    <t>VeryGames</t>
-  </si>
-  <si>
-    <t>Vox Eminor</t>
-  </si>
-  <si>
-    <t>Wildcard Academy</t>
-  </si>
-  <si>
-    <t>Spirit Academy</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:35.870Z</t>
-  </si>
-  <si>
-    <t>True Rippers</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:38.886Z</t>
-  </si>
-  <si>
-    <t>FaZe</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:39.932Z</t>
-  </si>
-  <si>
-    <t>iBUYPOWER</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:34.302Z</t>
-  </si>
-  <si>
-    <t>GODSENT</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:32.364Z</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:45.455Z</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:18.806Z</t>
-  </si>
-  <si>
-    <t>Orbit</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:33.993Z</t>
-  </si>
-  <si>
-    <t>Alliance</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:22.336Z</t>
-  </si>
-  <si>
-    <t>Homyno</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:16.607Z</t>
-  </si>
-  <si>
-    <t>MenaceGG</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:44.165Z</t>
-  </si>
-  <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:50.233Z</t>
-  </si>
-  <si>
-    <t>ENCE</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:19.604Z</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:13.227Z</t>
-  </si>
-  <si>
-    <t>MIBR</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:50.018Z</t>
-  </si>
-  <si>
-    <t>Wizards</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:38.841Z</t>
-  </si>
-  <si>
-    <t>RED Canids</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:44.661Z</t>
-  </si>
-  <si>
-    <t>TALON</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:26:40.586Z</t>
-  </si>
-  <si>
-    <t>NAVI Junior</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:26:32.431Z</t>
-  </si>
-  <si>
-    <t>FURIA</t>
-  </si>
-  <si>
-    <t>2026-02-19T22:08:26.017Z</t>
-  </si>
-  <si>
-    <t>ad hoc</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:50:09.060Z</t>
-  </si>
-  <si>
-    <t>SAW</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:47.596Z</t>
-  </si>
-  <si>
-    <t>NomadS</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:35.489Z</t>
-  </si>
-  <si>
-    <t>Outsiders</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:27.811Z</t>
-  </si>
-  <si>
-    <t>Red Viperz</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:20.687Z</t>
-  </si>
-  <si>
-    <t>The Dice</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:12.765Z</t>
-  </si>
-  <si>
-    <t>Victores Sumus</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:49:00.243Z</t>
-  </si>
-  <si>
-    <t>ODDIK</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:52.026Z</t>
-  </si>
-  <si>
-    <t>Qiang</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:45.055Z</t>
-  </si>
-  <si>
-    <t>inSanitY</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:38.129Z</t>
-  </si>
-  <si>
-    <t>Sangal</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:28.102Z</t>
-  </si>
-  <si>
-    <t>9Pandas</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:17.012Z</t>
-  </si>
-  <si>
-    <t>Gods Reign</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:09.473Z</t>
-  </si>
-  <si>
-    <t>CatEvil</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:48:02.110Z</t>
-  </si>
-  <si>
-    <t>Carnival</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:49.161Z</t>
-  </si>
-  <si>
-    <t>Evil Geniuses</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:36.482Z</t>
-  </si>
-  <si>
-    <t>Vantage</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:28.286Z</t>
-  </si>
-  <si>
-    <t>ATOX</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:18.470Z</t>
-  </si>
-  <si>
-    <t>Skinvault</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:47:11.265Z</t>
-  </si>
-  <si>
-    <t>BC.Game</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:52.846Z</t>
-  </si>
-  <si>
-    <t>Wings Up</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:32.115Z</t>
-  </si>
-  <si>
-    <t>Lynn Vision</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:46:08.336Z</t>
-  </si>
-  <si>
-    <t>Tricked</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:45:42.234Z</t>
-  </si>
-  <si>
-    <t>3DMAX</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:39:02.710Z</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:39.010Z</t>
-  </si>
-  <si>
-    <t>ARCRED</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:38:03.598Z</t>
-  </si>
-  <si>
-    <t>GamerLegion</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:47.172Z</t>
-  </si>
-  <si>
-    <t>Passion UA</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:27.234Z</t>
-  </si>
-  <si>
-    <t>FlyQuest</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:20.280Z</t>
-  </si>
-  <si>
-    <t>Envy</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:37:05.560Z</t>
-  </si>
-  <si>
-    <t>BIG</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:43.463Z</t>
-  </si>
-  <si>
-    <t>Limitless</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:26.343Z</t>
-  </si>
-  <si>
-    <t>Galorys</t>
-  </si>
-  <si>
-    <t>2026-02-19T00:36:18.696Z</t>
-  </si>
-  <si>
-    <t>devils.one</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:30.347Z</t>
-  </si>
-  <si>
-    <t>Luminosity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:18.851Z</t>
-  </si>
-  <si>
-    <t>Sharks</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:12.952Z</t>
-  </si>
-  <si>
-    <t>IHC</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:23:06.529Z</t>
-  </si>
-  <si>
-    <t>Kappa Bar</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:57.244Z</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:48.652Z</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:39.402Z</t>
-  </si>
-  <si>
-    <t>Mythic</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:32.047Z</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:20.745Z</t>
-  </si>
-  <si>
-    <t>KRU</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:22:06.663Z</t>
-  </si>
-  <si>
-    <t>Imperial</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:57.658Z</t>
-  </si>
-  <si>
-    <t>9z</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:44.273Z</t>
-  </si>
-  <si>
-    <t>paiN</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:21:14.058Z</t>
-  </si>
-  <si>
-    <t>Vexed</t>
-  </si>
-  <si>
-    <t>2026-02-18T21:19:58.722Z</t>
-  </si>
-  <si>
-    <t>Dignitas</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:54:17.535Z</t>
-  </si>
-  <si>
-    <t>LDLC</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:53.691Z</t>
-  </si>
-  <si>
-    <t>Aravt</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:09.872Z</t>
-  </si>
-  <si>
-    <t>VP.Prodigy</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:51:03.784Z</t>
-  </si>
-  <si>
-    <t>Entropiq</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:25.044Z</t>
-  </si>
-  <si>
-    <t>Take Flyte</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:49:14.876Z</t>
-  </si>
-  <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:27.422Z</t>
-  </si>
-  <si>
-    <t>Virtus.pro</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:47:19.575Z</t>
-  </si>
-  <si>
-    <t>ShindeN</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:26.535Z</t>
-  </si>
-  <si>
-    <t>Permitta</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:36:17.329Z</t>
-  </si>
-  <si>
-    <t>Wildcard</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:08.116Z</t>
-  </si>
-  <si>
-    <t>Astralis</t>
-  </si>
-  <si>
-    <t>2026-02-19T02:34:01.822Z</t>
-  </si>
-  <si>
-    <t>Bad News Eagles</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:27.335Z</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:18.535Z</t>
-  </si>
-  <si>
-    <t>ECSTATIC</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:39:12.540Z</t>
-  </si>
-  <si>
-    <t>Ninjas in Pyjamas</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:46.615Z</t>
-  </si>
-  <si>
-    <t>MOUZ</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:40.004Z</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:30.387Z</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>2026-02-19T21:53:23.315Z</t>
-  </si>
-  <si>
-    <t>Legacy</t>
-  </si>
-  <si>
-    <t>2026-02-19T01:45:20.251Z</t>
-  </si>
-  <si>
-    <t>LGB</t>
-  </si>
-  <si>
-    <t>Chinggis Warriors</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -932,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1271,59 +396,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Team</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Victories</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Streak</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Loses</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Points</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Majors</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Prestige</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Tournaments Trophies</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Tier</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Region</v>
+      </c>
+      <c r="K1" t="str">
+        <v>BonusType</v>
+      </c>
+      <c r="L1" t="str">
+        <v>BonusRemaining</v>
+      </c>
+      <c r="M1" t="str">
+        <v>LastUpdated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Nemiga</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1346,25 +468,25 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
+      <c r="I2" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J2" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K2" t="str">
+        <v>none</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="M2" t="str">
+        <v>2026-02-28T06:23:43.702Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Copenhagen Flames</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1387,25 +509,25 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
+      <c r="I3" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J3" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K3" t="str">
+        <v>none</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
+      <c r="M3" t="str">
+        <v>2026-02-28T06:23:25.514Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Eternal Fire</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1417,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>1073.8768625369544</v>
+        <v>1075.0155932909418</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1428,25 +550,25 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+      <c r="I4" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K4" t="str">
+        <v>none</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="M4" t="str">
+        <v>2026-02-28T06:28:03.545Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>The MongolZ</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -1458,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1073.7937286741819</v>
+        <v>1074.5249964878437</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1469,25 +591,25 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+      <c r="I5" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J5" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K5" t="str">
+        <v>none</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="M5" t="str">
+        <v>2026-02-28T06:27:37.125Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Elevate</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -1510,25 +632,25 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
+      <c r="I6" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J6" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K6" t="str">
+        <v>none</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
+      <c r="M6" t="str">
+        <v>2026-02-28T06:27:47.304Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Liquid</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1551,25 +673,25 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
+      <c r="I7" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J7" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K7" t="str">
+        <v>none</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
+      <c r="M7" t="str">
+        <v>2026-02-19T01:38:43.524Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Vitality</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1592,25 +714,25 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
+      <c r="I8" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J8" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K8" t="str">
+        <v>none</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
+      <c r="M8" t="str">
+        <v>2026-02-19T02:33:35.840Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Heroic</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1633,25 +755,25 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
+      <c r="I9" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J9" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K9" t="str">
+        <v>none</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
+      <c r="M9" t="str">
+        <v>2026-02-19T02:36:09.005Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Natus Vincere</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1674,25 +796,25 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
+      <c r="I10" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J10" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K10" t="str">
+        <v>none</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
+      <c r="M10" t="str">
+        <v>2026-02-19T02:47:09.337Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>PARIVISION</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1715,25 +837,25 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
+      <c r="I11" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J11" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K11" t="str">
+        <v>none</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
+      <c r="M11" t="str">
+        <v>2026-02-19T02:49:05.741Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Spirit</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1756,25 +878,25 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
+      <c r="I12" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J12" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K12" t="str">
+        <v>none</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
+      <c r="M12" t="str">
+        <v>2026-02-19T02:50:50.205Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Iluminar</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1797,37 +919,37 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
+      <c r="I13" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J13" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K13" t="str">
+        <v>none</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
+      <c r="M13" t="str">
+        <v>2026-02-19T01:45:03.003Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Cloud9</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>1047.3328324967438</v>
+        <v>1059.7515630907747</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1838,28 +960,28 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
+      <c r="I14" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J14" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K14" t="str">
+        <v>none</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
+      <c r="M14" t="str">
+        <v>2026-02-28T06:29:16.752Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Titan</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1868,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>1047.0637898805292</v>
+        <v>1059.329706521859</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1879,37 +1001,37 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
+      <c r="I15" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J15" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K15" t="str">
+        <v>none</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
+      <c r="M15" t="str">
+        <v>2026-02-28T06:29:24.671Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Onyx Ravens</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>1046.0288449811903</v>
+        <v>1059.1754690550463</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1920,79 +1042,79 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
+      <c r="I16" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J16" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K16" t="str">
+        <v>none</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>48</v>
+      <c r="M16" t="str">
+        <v>2026-02-28T06:28:59.888Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Verdant</v>
       </c>
       <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1038.7190184710753</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J17" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K17" t="str">
+        <v>none</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <v>2026-02-28T06:29:24.671Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Falcons</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>1030.8659864237202</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>1026.0064397232286</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
@@ -2002,25 +1124,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
+      <c r="I18" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J18" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K18" t="str">
+        <v>none</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
+      <c r="M18" t="str">
+        <v>2026-02-19T21:54:33.737Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Bounty Hunters</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2032,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>1016.7066953804866</v>
+        <v>1017.2412711985547</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2043,78 +1165,78 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
+      <c r="I19" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J19" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K19" t="str">
+        <v>none</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
+      <c r="M19" t="str">
+        <v>2026-02-28T06:28:59.888Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>The Huns</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1015</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J20" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K20" t="str">
+        <v>none</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
+        <v>2026-02-18T21:21:06.168Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TYLOO</v>
+      </c>
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="E20">
-        <v>1016.4834726488446</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>1015</v>
+        <v>1014.128742285643</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2125,25 +1247,25 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
+      <c r="I21" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J21" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K21" t="str">
+        <v>none</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
+      <c r="M21" t="str">
+        <v>2026-02-19T22:09:16.526Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>OG</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2155,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>1014.1287422856431</v>
+        <v>1013.5266895185538</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2166,69 +1288,69 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" t="s">
-        <v>16</v>
+      <c r="I22" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J22" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K22" t="str">
+        <v>none</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
+      <c r="M22" t="str">
+        <v>2026-02-19T22:09:03.691Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>BESTIA</v>
       </c>
       <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>1005.0046329623956</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J23" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K23" t="str">
+        <v>none</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <v>2026-02-28T06:29:16.752Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>G2</v>
+      </c>
+      <c r="B24">
         <v>4</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1013.5266895185538</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2237,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>1012.3622483710056</v>
+        <v>1002.6421965170028</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2248,25 +1370,25 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
+      <c r="I24" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J24" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K24" t="str">
+        <v>none</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="M24" t="str">
+        <v>2026-02-28T06:28:17.433Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>hoorai</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -2278,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>1001.4719243188601</v>
+        <v>1000.4888979238718</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2289,37 +1411,37 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
+      <c r="I25" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J25" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K25" t="str">
+        <v>none</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>63</v>
+      <c r="M25" t="str">
+        <v>2026-02-28T06:28:25.661Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>00 Nation</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1001.0605747019569</v>
+        <v>1000</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2330,25 +1452,25 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" t="s">
-        <v>16</v>
+      <c r="I26" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J26" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K26" t="str">
+        <v>none</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>100 Thieves</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2371,25 +1493,25 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" t="s">
-        <v>16</v>
+      <c r="I27" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J27" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K27" t="str">
+        <v>none</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Aether</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2412,25 +1534,25 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
+      <c r="I28" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J28" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K28" t="str">
+        <v>none</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>AMKAL</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2453,25 +1575,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" t="s">
-        <v>16</v>
+      <c r="I29" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J29" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K29" t="str">
+        <v>none</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>69</v>
+      <c r="M29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Astana Dragons</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2494,25 +1616,25 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
+      <c r="I30" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J30" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K30" t="str">
+        <v>none</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>70</v>
+      <c r="M30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Astralis Talent</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2535,25 +1657,25 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" t="s">
-        <v>16</v>
+      <c r="I31" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J31" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K31" t="str">
+        <v>none</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Avangar</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2576,25 +1698,25 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
+      <c r="I32" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J32" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K32" t="str">
+        <v>none</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
+      <c r="M32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>B8</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2617,25 +1739,25 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s">
-        <v>16</v>
+      <c r="I33" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J33" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K33" t="str">
+        <v>none</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>73</v>
+      <c r="M33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>BIG Academy</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2658,25 +1780,25 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" t="s">
-        <v>16</v>
+      <c r="I34" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J34" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K34" t="str">
+        <v>none</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>74</v>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Bravado</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2699,25 +1821,25 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
+      <c r="I35" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J35" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K35" t="str">
+        <v>none</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>75</v>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Copenhagen Wolves</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2740,25 +1862,25 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
+      <c r="I36" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J36" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K36" t="str">
+        <v>none</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>76</v>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Counter Logic Games</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2781,25 +1903,25 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" t="s">
-        <v>16</v>
+      <c r="I37" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J37" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K37" t="str">
+        <v>none</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>77</v>
+      <c r="M37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>ENCE Academy</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2822,25 +1944,25 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" t="s">
-        <v>26</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
+      <c r="I38" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J38" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K38" t="str">
+        <v>none</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>78</v>
+      <c r="M38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>ESC</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2863,25 +1985,25 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" t="s">
-        <v>16</v>
+      <c r="I39" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J39" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K39" t="str">
+        <v>none</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
+      <c r="M39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Flash</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2904,25 +2026,25 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" t="s">
-        <v>16</v>
+      <c r="I40" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J40" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K40" t="str">
+        <v>none</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>80</v>
+      <c r="M40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>FLuffy Gangsters</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2945,25 +2067,25 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" t="s">
-        <v>16</v>
+      <c r="I41" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J41" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K41" t="str">
+        <v>none</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>81</v>
+      <c r="M41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>FlyQuest RED</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2986,25 +2108,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" t="s">
-        <v>16</v>
+      <c r="I42" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J42" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K42" t="str">
+        <v>none</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>82</v>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Fnatic</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3027,25 +2149,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" t="s">
-        <v>16</v>
+      <c r="I43" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J43" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K43" t="str">
+        <v>none</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>83</v>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>FORZE</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3068,25 +2190,25 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" t="s">
-        <v>16</v>
+      <c r="I44" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J44" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K44" t="str">
+        <v>none</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>84</v>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Gambit</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3109,25 +2231,25 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
+      <c r="I45" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J45" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K45" t="str">
+        <v>none</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>85</v>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>GATERON</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3150,25 +2272,25 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
-        <v>16</v>
+      <c r="I46" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J46" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K46" t="str">
+        <v>none</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>86</v>
+      <c r="M46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>GhoulsW</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3191,25 +2313,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s">
-        <v>16</v>
+      <c r="I47" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J47" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K47" t="str">
+        <v>none</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>87</v>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>HAVU</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3232,25 +2354,25 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" t="s">
-        <v>16</v>
+      <c r="I48" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J48" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K48" t="str">
+        <v>none</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>88</v>
+      <c r="M48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Heroic Academy</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3273,25 +2395,25 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" t="s">
-        <v>16</v>
+      <c r="I49" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J49" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K49" t="str">
+        <v>none</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>89</v>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Hesta</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3314,25 +2436,25 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" t="s">
-        <v>16</v>
+      <c r="I50" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J50" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K50" t="str">
+        <v>none</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>90</v>
+      <c r="M50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Immortals</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3355,25 +2477,25 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" t="s">
-        <v>16</v>
+      <c r="I51" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J51" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K51" t="str">
+        <v>none</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>91</v>
+      <c r="M51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Into the Beach</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3396,25 +2518,25 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" t="s">
-        <v>26</v>
-      </c>
-      <c r="K52" t="s">
-        <v>16</v>
+      <c r="I52" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J52" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K52" t="str">
+        <v>none</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>92</v>
+      <c r="M52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Kinguin</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3437,25 +2559,25 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>26</v>
-      </c>
-      <c r="K53" t="s">
-        <v>16</v>
+      <c r="I53" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J53" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K53" t="str">
+        <v>none</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>93</v>
+      <c r="M53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>kONO</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3478,25 +2600,25 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" t="s">
-        <v>16</v>
+      <c r="I54" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J54" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K54" t="str">
+        <v>none</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>94</v>
+      <c r="M54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>LGB eSports</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3519,25 +2641,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s">
-        <v>16</v>
+      <c r="I55" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J55" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K55" t="str">
+        <v>none</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>290</v>
+      <c r="M55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>MAD Lions</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3560,25 +2682,25 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" t="s">
-        <v>16</v>
+      <c r="I56" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J56" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K56" t="str">
+        <v>none</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>95</v>
+      <c r="M56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>MANA</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3601,25 +2723,25 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" t="s">
-        <v>16</v>
+      <c r="I57" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J57" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K57" t="str">
+        <v>none</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>96</v>
+      <c r="M57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>MIBR Academy</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3642,25 +2764,25 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" t="s">
-        <v>16</v>
+      <c r="I58" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J58" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K58" t="str">
+        <v>none</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>97</v>
+      <c r="M58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Misfits</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3683,25 +2805,25 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>26</v>
-      </c>
-      <c r="K59" t="s">
-        <v>16</v>
+      <c r="I59" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J59" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K59" t="str">
+        <v>none</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>98</v>
+      <c r="M59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>mousesports</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3724,25 +2846,25 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>15</v>
-      </c>
-      <c r="K60" t="s">
-        <v>16</v>
+      <c r="I60" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J60" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K60" t="str">
+        <v>none</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>99</v>
+      <c r="M60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>MOUZ NXT</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3765,25 +2887,25 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" t="s">
-        <v>16</v>
+      <c r="I61" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J61" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K61" t="str">
+        <v>none</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>100</v>
+      <c r="M61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Movistar KOI</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3806,25 +2928,25 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" t="s">
-        <v>16</v>
+      <c r="I62" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J62" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K62" t="str">
+        <v>none</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>101</v>
+      <c r="M62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>NIP Impact</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3847,25 +2969,25 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" t="s">
-        <v>15</v>
-      </c>
-      <c r="K63" t="s">
-        <v>16</v>
+      <c r="I63" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J63" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K63" t="str">
+        <v>none</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="M63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>102</v>
+      <c r="M63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Nordix</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3888,25 +3010,25 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" t="s">
-        <v>16</v>
+      <c r="I64" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J64" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K64" t="str">
+        <v>none</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
-      <c r="M64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>103</v>
+      <c r="M64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>NOVAQ</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3929,25 +3051,25 @@
       <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" t="s">
-        <v>15</v>
-      </c>
-      <c r="K65" t="s">
-        <v>16</v>
+      <c r="I65" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J65" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K65" t="str">
+        <v>none</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>104</v>
+      <c r="M65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>paiN Academy</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3970,25 +3092,25 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" t="s">
-        <v>16</v>
+      <c r="I66" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J66" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K66" t="str">
+        <v>none</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>105</v>
+      <c r="M66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>QMISTRY</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4011,25 +3133,25 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" t="s">
-        <v>26</v>
-      </c>
-      <c r="K67" t="s">
-        <v>16</v>
+      <c r="I67" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J67" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K67" t="str">
+        <v>none</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
-      <c r="M67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>106</v>
+      <c r="M67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Quantum Bellator Fire</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4052,25 +3174,25 @@
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K68" t="s">
-        <v>16</v>
+      <c r="I68" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J68" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K68" t="str">
+        <v>none</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>107</v>
+      <c r="M68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Rogue</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4093,25 +3215,25 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" t="s">
-        <v>16</v>
+      <c r="I69" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J69" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K69" t="str">
+        <v>none</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>108</v>
+      <c r="M69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Shika</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4134,25 +3256,25 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" t="s">
-        <v>15</v>
-      </c>
-      <c r="K70" t="s">
-        <v>16</v>
+      <c r="I70" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J70" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K70" t="str">
+        <v>none</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>109</v>
+      <c r="M70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>SKYFURY</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4175,25 +3297,25 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" t="s">
-        <v>16</v>
+      <c r="I71" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J71" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K71" t="str">
+        <v>none</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>110</v>
+      <c r="M71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Space Soldiers</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4216,25 +3338,25 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" t="s">
-        <v>19</v>
-      </c>
-      <c r="K72" t="s">
-        <v>16</v>
+      <c r="I72" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J72" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K72" t="str">
+        <v>none</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>111</v>
+      <c r="M72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Sprout</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4257,25 +3379,25 @@
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" t="s">
-        <v>26</v>
-      </c>
-      <c r="K73" t="s">
-        <v>16</v>
+      <c r="I73" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J73" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K73" t="str">
+        <v>none</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>112</v>
+      <c r="M73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Tsunami</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4298,25 +3420,25 @@
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" t="s">
-        <v>26</v>
-      </c>
-      <c r="K74" t="s">
-        <v>16</v>
+      <c r="I74" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J74" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K74" t="str">
+        <v>none</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>113</v>
+      <c r="M74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>VeryGames</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4339,25 +3461,25 @@
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" t="s">
-        <v>16</v>
+      <c r="I75" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J75" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K75" t="str">
+        <v>none</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>114</v>
+      <c r="M75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Vox Eminor</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4380,25 +3502,25 @@
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" t="s">
-        <v>16</v>
+      <c r="I76" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J76" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K76" t="str">
+        <v>none</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>115</v>
+      <c r="M76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Wildcard Academy</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4421,37 +3543,37 @@
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" t="s">
-        <v>15</v>
-      </c>
-      <c r="K77" t="s">
-        <v>16</v>
+      <c r="I77" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J77" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K77" t="str">
+        <v>none</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>116</v>
+      <c r="M77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Spirit Academy</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1000</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4462,25 +3584,25 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" t="s">
-        <v>19</v>
-      </c>
-      <c r="K78" t="s">
-        <v>16</v>
+      <c r="I78" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J78" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K78" t="str">
+        <v>none</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>117</v>
+      <c r="M78" t="str">
+        <v>2026-02-19T02:49:35.870Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>True Rippers</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -4492,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4503,25 +3625,25 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" t="s">
-        <v>15</v>
-      </c>
-      <c r="K79" t="s">
-        <v>16</v>
+      <c r="I79" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J79" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K79" t="str">
+        <v>none</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>119</v>
+      <c r="M79" t="str">
+        <v>2026-02-19T02:47:38.886Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>FaZe</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4533,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4544,25 +3666,25 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" t="s">
-        <v>15</v>
-      </c>
-      <c r="K80" t="s">
-        <v>16</v>
+      <c r="I80" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J80" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K80" t="str">
+        <v>none</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>121</v>
+      <c r="M80" t="str">
+        <v>2026-02-19T02:36:39.932Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>iBUYPOWER</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4574,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4585,25 +3707,25 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>19</v>
-      </c>
-      <c r="K81" t="s">
-        <v>16</v>
+      <c r="I81" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J81" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K81" t="str">
+        <v>none</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>123</v>
+      <c r="M81" t="str">
+        <v>2026-02-19T02:36:34.302Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>GODSENT</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4615,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <v>999.72518097723059</v>
+        <v>999.7251809772306</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4626,25 +3748,25 @@
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
-        <v>19</v>
-      </c>
-      <c r="K82" t="s">
-        <v>16</v>
+      <c r="I82" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J82" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K82" t="str">
+        <v>none</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>125</v>
+      <c r="M82" t="str">
+        <v>2026-02-19T01:39:32.364Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>M80</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4656,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>999.72518097723059</v>
+        <v>999.672340544519</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -4667,37 +3789,37 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" t="s">
-        <v>26</v>
-      </c>
-      <c r="K83" t="s">
-        <v>16</v>
+      <c r="I83" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J83" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K83" t="str">
+        <v>none</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>127</v>
+      <c r="M83" t="str">
+        <v>2026-02-19T01:45:45.455Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Chinggis Warrios</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>999.67234054451899</v>
+        <v>999.4408194717619</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4708,25 +3830,25 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" t="s">
-        <v>26</v>
-      </c>
-      <c r="K84" t="s">
-        <v>16</v>
+      <c r="I84" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J84" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K84" t="str">
+        <v>none</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>291</v>
+      <c r="M84" t="str">
+        <v>2026-02-19T22:08:18.806Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Orbit</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -4738,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="E85">
-        <v>999.44081947176187</v>
+        <v>999.4186945376644</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4749,37 +3871,37 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" t="s">
-        <v>15</v>
-      </c>
-      <c r="K85" t="s">
-        <v>16</v>
+      <c r="I85" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J85" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K85" t="str">
+        <v>none</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>130</v>
+      <c r="M85" t="str">
+        <v>2026-02-19T22:08:33.993Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Alliance</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>999.41869453766435</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4790,25 +3912,25 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K86" t="s">
-        <v>16</v>
+      <c r="I86" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J86" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K86" t="str">
+        <v>none</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>132</v>
+      <c r="M86" t="str">
+        <v>2026-02-19T02:51:22.336Z</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Homyno</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4820,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="E87">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4831,25 +3953,25 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K87" t="s">
-        <v>16</v>
+      <c r="I87" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J87" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K87" t="str">
+        <v>none</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>134</v>
+      <c r="M87" t="str">
+        <v>2026-02-19T02:51:16.607Z</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>MenaceGG</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -4861,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4872,25 +3994,25 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>26</v>
-      </c>
-      <c r="K88" t="s">
-        <v>16</v>
+      <c r="I88" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J88" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K88" t="str">
+        <v>none</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
-      <c r="M88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>136</v>
+      <c r="M88" t="str">
+        <v>2026-02-19T02:49:44.165Z</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Solid</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4902,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4913,25 +4035,25 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" t="s">
-        <v>16</v>
+      <c r="I89" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J89" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K89" t="str">
+        <v>none</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>138</v>
+      <c r="M89" t="str">
+        <v>2026-02-19T02:47:50.233Z</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>ENCE</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4943,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4954,25 +4076,25 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" t="s">
-        <v>26</v>
-      </c>
-      <c r="K90" t="s">
-        <v>16</v>
+      <c r="I90" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J90" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K90" t="str">
+        <v>none</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>140</v>
+      <c r="M90" t="str">
+        <v>2026-02-19T02:34:19.604Z</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Nexus</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4984,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4995,25 +4117,25 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" t="s">
-        <v>16</v>
+      <c r="I91" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J91" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K91" t="str">
+        <v>none</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
-      <c r="M91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>142</v>
+      <c r="M91" t="str">
+        <v>2026-02-19T02:34:13.227Z</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>MIBR</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5025,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <v>999.40885151865234</v>
+        <v>999.4088515186523</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5036,25 +4158,25 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" t="s">
-        <v>19</v>
-      </c>
-      <c r="K92" t="s">
-        <v>16</v>
+      <c r="I92" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J92" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K92" t="str">
+        <v>none</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>144</v>
+      <c r="M92" t="str">
+        <v>2026-02-19T01:39:50.018Z</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Wizards</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -5066,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>999.40885151865234</v>
+        <v>999.4062521695108</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5077,119 +4199,119 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" t="s">
-        <v>26</v>
-      </c>
-      <c r="K93" t="s">
-        <v>16</v>
+      <c r="I93" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J93" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K93" t="str">
+        <v>none</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>146</v>
+      <c r="M93" t="str">
+        <v>2026-02-19T01:45:38.841Z</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>RED Canids</v>
       </c>
       <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>999.3397745397444</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J94" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K94" t="str">
+        <v>none</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="str">
+        <v>2026-02-19T22:08:44.661Z</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Rebels</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>999.3232682842747</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J95" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K95" t="str">
+        <v>none</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="str">
+        <v>2026-02-28T06:28:39.554Z</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>FURIA</v>
+      </c>
+      <c r="B96">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94">
-        <v>999.40625216951082</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" t="s">
-        <v>26</v>
-      </c>
-      <c r="K94" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>3</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>999.33977453974444</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>26</v>
-      </c>
-      <c r="K95" t="s">
-        <v>16</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
       <c r="E96">
-        <v>998.21432984797923</v>
+        <v>985.3605394813516</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5200,37 +4322,37 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" t="s">
-        <v>16</v>
+      <c r="I96" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J96" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K96" t="str">
+        <v>none</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>152</v>
+      <c r="M96" t="str">
+        <v>2026-02-19T22:08:26.017Z</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>ad hoc</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>997.43533565464827</v>
+        <v>985</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5241,37 +4363,37 @@
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97" t="s">
-        <v>16</v>
+      <c r="I97" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J97" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K97" t="str">
+        <v>none</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="M97" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>154</v>
+      <c r="M97" t="str">
+        <v>2026-02-19T00:50:09.060Z</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>SAW</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>985.36053948135157</v>
+        <v>985</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5282,25 +4404,25 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" t="s">
-        <v>26</v>
-      </c>
-      <c r="K98" t="s">
-        <v>16</v>
+      <c r="I98" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J98" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K98" t="str">
+        <v>none</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>156</v>
+      <c r="M98" t="str">
+        <v>2026-02-19T00:49:47.596Z</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>NomadS</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5323,25 +4445,25 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" t="s">
-        <v>15</v>
-      </c>
-      <c r="K99" t="s">
-        <v>16</v>
+      <c r="I99" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J99" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K99" t="str">
+        <v>none</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="M99" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>158</v>
+      <c r="M99" t="str">
+        <v>2026-02-19T00:49:35.489Z</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Outsiders</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5364,25 +4486,25 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" t="s">
-        <v>16</v>
+      <c r="I100" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J100" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K100" t="str">
+        <v>none</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>160</v>
+      <c r="M100" t="str">
+        <v>2026-02-19T00:49:27.811Z</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Red Viperz</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5405,25 +4527,25 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" t="s">
-        <v>19</v>
-      </c>
-      <c r="K101" t="s">
-        <v>16</v>
+      <c r="I101" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J101" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K101" t="str">
+        <v>none</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>162</v>
+      <c r="M101" t="str">
+        <v>2026-02-19T00:49:20.687Z</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>The Dice</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5446,25 +4568,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" t="s">
-        <v>19</v>
-      </c>
-      <c r="K102" t="s">
-        <v>16</v>
+      <c r="I102" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J102" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K102" t="str">
+        <v>none</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>164</v>
+      <c r="M102" t="str">
+        <v>2026-02-19T00:49:12.765Z</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Victores Sumus</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -5487,25 +4609,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" t="s">
-        <v>26</v>
-      </c>
-      <c r="K103" t="s">
-        <v>16</v>
+      <c r="I103" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J103" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K103" t="str">
+        <v>none</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
-      <c r="M103" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>166</v>
+      <c r="M103" t="str">
+        <v>2026-02-19T00:49:00.243Z</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>ODDIK</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5528,25 +4650,25 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104" t="s">
-        <v>15</v>
-      </c>
-      <c r="K104" t="s">
-        <v>16</v>
+      <c r="I104" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J104" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K104" t="str">
+        <v>none</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>168</v>
+      <c r="M104" t="str">
+        <v>2026-02-19T00:48:52.026Z</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Qiang</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5569,25 +4691,25 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105" t="s">
-        <v>16</v>
+      <c r="I105" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J105" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K105" t="str">
+        <v>none</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>170</v>
+      <c r="M105" t="str">
+        <v>2026-02-19T00:48:45.055Z</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>inSanitY</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5610,25 +4732,25 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" t="s">
-        <v>26</v>
-      </c>
-      <c r="K106" t="s">
-        <v>16</v>
+      <c r="I106" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J106" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K106" t="str">
+        <v>none</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>172</v>
+      <c r="M106" t="str">
+        <v>2026-02-19T00:48:38.129Z</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Sangal</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5651,25 +4773,25 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" t="s">
-        <v>19</v>
-      </c>
-      <c r="K107" t="s">
-        <v>16</v>
+      <c r="I107" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J107" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K107" t="str">
+        <v>none</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
-      <c r="M107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>174</v>
+      <c r="M107" t="str">
+        <v>2026-02-19T00:48:28.102Z</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>9Pandas</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5692,25 +4814,25 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" t="s">
-        <v>19</v>
-      </c>
-      <c r="K108" t="s">
-        <v>16</v>
+      <c r="I108" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J108" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K108" t="str">
+        <v>none</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="M108" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>176</v>
+      <c r="M108" t="str">
+        <v>2026-02-19T00:48:17.012Z</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Gods Reign</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -5733,25 +4855,25 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" t="s">
-        <v>15</v>
-      </c>
-      <c r="K109" t="s">
-        <v>16</v>
+      <c r="I109" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J109" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K109" t="str">
+        <v>none</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
-      <c r="M109" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>178</v>
+      <c r="M109" t="str">
+        <v>2026-02-19T00:48:09.473Z</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>CatEvil</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5774,25 +4896,25 @@
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>15</v>
-      </c>
-      <c r="K110" t="s">
-        <v>16</v>
+      <c r="I110" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J110" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K110" t="str">
+        <v>none</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>180</v>
+      <c r="M110" t="str">
+        <v>2026-02-19T00:48:02.110Z</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Carnival</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -5815,25 +4937,25 @@
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
-        <v>19</v>
-      </c>
-      <c r="K111" t="s">
-        <v>16</v>
+      <c r="I111" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J111" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K111" t="str">
+        <v>none</v>
       </c>
       <c r="L111">
         <v>0</v>
       </c>
-      <c r="M111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>182</v>
+      <c r="M111" t="str">
+        <v>2026-02-19T00:47:49.161Z</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Evil Geniuses</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5856,25 +4978,25 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" t="s">
-        <v>19</v>
-      </c>
-      <c r="K112" t="s">
-        <v>16</v>
+      <c r="I112" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J112" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K112" t="str">
+        <v>none</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
-      <c r="M112" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>184</v>
+      <c r="M112" t="str">
+        <v>2026-02-19T00:47:36.482Z</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Vantage</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5897,25 +5019,25 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" t="s">
-        <v>15</v>
-      </c>
-      <c r="K113" t="s">
-        <v>16</v>
+      <c r="I113" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J113" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K113" t="str">
+        <v>none</v>
       </c>
       <c r="L113">
         <v>0</v>
       </c>
-      <c r="M113" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>186</v>
+      <c r="M113" t="str">
+        <v>2026-02-19T00:47:28.286Z</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>ATOX</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5938,25 +5060,25 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" t="s">
-        <v>15</v>
-      </c>
-      <c r="K114" t="s">
-        <v>16</v>
+      <c r="I114" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J114" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K114" t="str">
+        <v>none</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
-      <c r="M114" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>188</v>
+      <c r="M114" t="str">
+        <v>2026-02-19T00:47:18.470Z</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Skinvault</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5979,25 +5101,25 @@
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" t="s">
-        <v>15</v>
-      </c>
-      <c r="K115" t="s">
-        <v>16</v>
+      <c r="I115" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J115" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K115" t="str">
+        <v>none</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
-      <c r="M115" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>190</v>
+      <c r="M115" t="str">
+        <v>2026-02-19T00:47:11.265Z</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>BC.Game</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -6020,25 +5142,25 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" t="s">
-        <v>15</v>
-      </c>
-      <c r="K116" t="s">
-        <v>16</v>
+      <c r="I116" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J116" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K116" t="str">
+        <v>none</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="M116" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>192</v>
+      <c r="M116" t="str">
+        <v>2026-02-19T00:46:52.846Z</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Wings Up</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6061,25 +5183,25 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117" t="s">
-        <v>16</v>
+      <c r="I117" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J117" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K117" t="str">
+        <v>none</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
-      <c r="M117" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>194</v>
+      <c r="M117" t="str">
+        <v>2026-02-19T00:46:32.115Z</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Lynn Vision</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6102,25 +5224,25 @@
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>15</v>
-      </c>
-      <c r="K118" t="s">
-        <v>16</v>
+      <c r="I118" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J118" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K118" t="str">
+        <v>none</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
-      <c r="M118" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>196</v>
+      <c r="M118" t="str">
+        <v>2026-02-19T00:46:08.336Z</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Tricked</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6143,25 +5265,25 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" t="s">
-        <v>16</v>
+      <c r="I119" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J119" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K119" t="str">
+        <v>none</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
-      <c r="M119" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>198</v>
+      <c r="M119" t="str">
+        <v>2026-02-19T00:45:42.234Z</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>3DMAX</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6184,25 +5306,25 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" t="s">
-        <v>15</v>
-      </c>
-      <c r="K120" t="s">
-        <v>16</v>
+      <c r="I120" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J120" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K120" t="str">
+        <v>none</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
-      <c r="M120" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>200</v>
+      <c r="M120" t="str">
+        <v>2026-02-19T00:39:02.710Z</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Venom</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6225,25 +5347,25 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" t="s">
-        <v>19</v>
-      </c>
-      <c r="K121" t="s">
-        <v>16</v>
+      <c r="I121" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J121" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K121" t="str">
+        <v>none</v>
       </c>
       <c r="L121">
         <v>0</v>
       </c>
-      <c r="M121" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>202</v>
+      <c r="M121" t="str">
+        <v>2026-02-19T00:38:39.010Z</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>ARCRED</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6266,25 +5388,25 @@
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" t="s">
-        <v>19</v>
-      </c>
-      <c r="K122" t="s">
-        <v>16</v>
+      <c r="I122" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J122" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K122" t="str">
+        <v>none</v>
       </c>
       <c r="L122">
         <v>0</v>
       </c>
-      <c r="M122" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>204</v>
+      <c r="M122" t="str">
+        <v>2026-02-19T00:38:03.598Z</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>GamerLegion</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6307,25 +5429,25 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" t="s">
-        <v>26</v>
-      </c>
-      <c r="K123" t="s">
-        <v>16</v>
+      <c r="I123" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J123" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K123" t="str">
+        <v>none</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
-      <c r="M123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>206</v>
+      <c r="M123" t="str">
+        <v>2026-02-19T00:37:47.172Z</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Passion UA</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6348,25 +5470,25 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" t="s">
-        <v>16</v>
+      <c r="I124" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J124" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K124" t="str">
+        <v>none</v>
       </c>
       <c r="L124">
         <v>0</v>
       </c>
-      <c r="M124" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>208</v>
+      <c r="M124" t="str">
+        <v>2026-02-19T00:37:27.234Z</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>FlyQuest</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6389,25 +5511,25 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" t="s">
-        <v>26</v>
-      </c>
-      <c r="K125" t="s">
-        <v>16</v>
+      <c r="I125" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J125" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K125" t="str">
+        <v>none</v>
       </c>
       <c r="L125">
         <v>0</v>
       </c>
-      <c r="M125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>210</v>
+      <c r="M125" t="str">
+        <v>2026-02-19T00:37:20.280Z</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Envy</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6430,25 +5552,25 @@
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>15</v>
-      </c>
-      <c r="K126" t="s">
-        <v>16</v>
+      <c r="I126" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J126" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K126" t="str">
+        <v>none</v>
       </c>
       <c r="L126">
         <v>0</v>
       </c>
-      <c r="M126" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>212</v>
+      <c r="M126" t="str">
+        <v>2026-02-19T00:37:05.560Z</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>BIG</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6471,25 +5593,25 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" t="s">
-        <v>16</v>
+      <c r="I127" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J127" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K127" t="str">
+        <v>none</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="M127" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>214</v>
+      <c r="M127" t="str">
+        <v>2026-02-19T00:36:43.463Z</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Limitless</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6512,25 +5634,25 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" t="s">
-        <v>19</v>
-      </c>
-      <c r="K128" t="s">
-        <v>16</v>
+      <c r="I128" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J128" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K128" t="str">
+        <v>none</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>216</v>
+      <c r="M128" t="str">
+        <v>2026-02-19T00:36:26.343Z</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Galorys</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6553,25 +5675,25 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>19</v>
-      </c>
-      <c r="K129" t="s">
-        <v>16</v>
+      <c r="I129" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J129" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K129" t="str">
+        <v>none</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="M129" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>218</v>
+      <c r="M129" t="str">
+        <v>2026-02-19T00:36:18.696Z</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>devils.one</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6594,25 +5716,25 @@
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>19</v>
-      </c>
-      <c r="K130" t="s">
-        <v>16</v>
+      <c r="I130" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J130" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K130" t="str">
+        <v>none</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>220</v>
+      <c r="M130" t="str">
+        <v>2026-02-18T21:23:30.347Z</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Luminosity</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6635,25 +5757,25 @@
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>26</v>
-      </c>
-      <c r="K131" t="s">
-        <v>16</v>
+      <c r="I131" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J131" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K131" t="str">
+        <v>none</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>222</v>
+      <c r="M131" t="str">
+        <v>2026-02-18T21:23:18.851Z</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Sharks</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6676,25 +5798,25 @@
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>15</v>
-      </c>
-      <c r="K132" t="s">
-        <v>16</v>
+      <c r="I132" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J132" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K132" t="str">
+        <v>none</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="M132" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>224</v>
+      <c r="M132" t="str">
+        <v>2026-02-18T21:23:12.952Z</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>IHC</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6717,25 +5839,25 @@
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" t="s">
-        <v>19</v>
-      </c>
-      <c r="K133" t="s">
-        <v>16</v>
+      <c r="I133" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J133" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K133" t="str">
+        <v>none</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="M133" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>226</v>
+      <c r="M133" t="str">
+        <v>2026-02-18T21:23:06.529Z</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Kappa Bar</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6758,25 +5880,25 @@
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" t="s">
-        <v>26</v>
-      </c>
-      <c r="K134" t="s">
-        <v>16</v>
+      <c r="I134" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J134" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K134" t="str">
+        <v>none</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="M134" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>228</v>
+      <c r="M134" t="str">
+        <v>2026-02-18T21:22:57.244Z</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Complexity</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6799,25 +5921,25 @@
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135" t="s">
-        <v>16</v>
+      <c r="I135" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J135" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K135" t="str">
+        <v>none</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>230</v>
+      <c r="M135" t="str">
+        <v>2026-02-18T21:22:48.652Z</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Case</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6840,25 +5962,25 @@
       <c r="H136">
         <v>0</v>
       </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>19</v>
-      </c>
-      <c r="K136" t="s">
-        <v>16</v>
+      <c r="I136" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J136" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K136" t="str">
+        <v>none</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
-      <c r="M136" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>232</v>
+      <c r="M136" t="str">
+        <v>2026-02-18T21:22:39.402Z</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Mythic</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6881,25 +6003,25 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" t="s">
-        <v>26</v>
-      </c>
-      <c r="K137" t="s">
-        <v>16</v>
+      <c r="I137" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J137" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K137" t="str">
+        <v>none</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="M137" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>234</v>
+      <c r="M137" t="str">
+        <v>2026-02-18T21:22:32.047Z</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Enemy</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -6922,25 +6044,25 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>19</v>
-      </c>
-      <c r="K138" t="s">
-        <v>16</v>
+      <c r="I138" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J138" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K138" t="str">
+        <v>none</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="M138" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>236</v>
+      <c r="M138" t="str">
+        <v>2026-02-18T21:22:20.745Z</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>KRU</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6963,25 +6085,25 @@
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" t="s">
-        <v>26</v>
-      </c>
-      <c r="K139" t="s">
-        <v>16</v>
+      <c r="I139" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J139" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K139" t="str">
+        <v>none</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="M139" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>238</v>
+      <c r="M139" t="str">
+        <v>2026-02-18T21:22:06.663Z</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Imperial</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -7004,25 +6126,25 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="I140" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" t="s">
-        <v>19</v>
-      </c>
-      <c r="K140" t="s">
-        <v>16</v>
+      <c r="I140" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J140" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K140" t="str">
+        <v>none</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>240</v>
+      <c r="M140" t="str">
+        <v>2026-02-18T21:21:57.658Z</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>9z</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7045,25 +6167,25 @@
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" t="s">
-        <v>26</v>
-      </c>
-      <c r="K141" t="s">
-        <v>16</v>
+      <c r="I141" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J141" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K141" t="str">
+        <v>none</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="M141" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>242</v>
+      <c r="M141" t="str">
+        <v>2026-02-18T21:21:44.273Z</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>paiN</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -7086,25 +6208,25 @@
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" t="s">
-        <v>26</v>
-      </c>
-      <c r="K142" t="s">
-        <v>16</v>
+      <c r="I142" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J142" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K142" t="str">
+        <v>none</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="M142" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>244</v>
+      <c r="M142" t="str">
+        <v>2026-02-18T21:21:14.058Z</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Vexed</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7127,78 +6249,78 @@
       <c r="H143">
         <v>0</v>
       </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" t="s">
-        <v>26</v>
-      </c>
-      <c r="K143" t="s">
-        <v>16</v>
+      <c r="I143" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J143" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K143" t="str">
+        <v>none</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="M143" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>246</v>
+      <c r="M143" t="str">
+        <v>2026-02-18T21:19:58.722Z</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Dignitas</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>984.7039370196626</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J144" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K144" t="str">
+        <v>none</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144" t="str">
+        <v>2026-02-19T21:54:17.535Z</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>LDLC</v>
+      </c>
+      <c r="B145">
         <v>1</v>
       </c>
-      <c r="E144">
-        <v>985</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" t="s">
-        <v>26</v>
-      </c>
-      <c r="K144" t="s">
-        <v>16</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>248</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>985</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -7209,25 +6331,25 @@
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>15</v>
-      </c>
-      <c r="K145" t="s">
-        <v>16</v>
+      <c r="I145" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J145" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K145" t="str">
+        <v>none</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="M145" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>250</v>
+      <c r="M145" t="str">
+        <v>2026-02-19T21:53:53.691Z</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Aravt</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -7239,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -7250,25 +6372,25 @@
       <c r="H146">
         <v>0</v>
       </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>19</v>
-      </c>
-      <c r="K146" t="s">
-        <v>16</v>
+      <c r="I146" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J146" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K146" t="str">
+        <v>none</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="M146" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>252</v>
+      <c r="M146" t="str">
+        <v>2026-02-19T02:51:09.872Z</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>VP.Prodigy</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -7280,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -7291,25 +6413,25 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>15</v>
-      </c>
-      <c r="K147" t="s">
-        <v>16</v>
+      <c r="I147" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J147" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K147" t="str">
+        <v>none</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="M147" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>254</v>
+      <c r="M147" t="str">
+        <v>2026-02-19T02:51:03.784Z</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Entropiq</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -7321,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -7332,25 +6454,25 @@
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>15</v>
-      </c>
-      <c r="K148" t="s">
-        <v>16</v>
+      <c r="I148" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J148" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K148" t="str">
+        <v>none</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>256</v>
+      <c r="M148" t="str">
+        <v>2026-02-19T02:49:25.044Z</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Take Flyte</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -7362,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -7373,25 +6495,25 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" t="s">
-        <v>15</v>
-      </c>
-      <c r="K149" t="s">
-        <v>16</v>
+      <c r="I149" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J149" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K149" t="str">
+        <v>none</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="M149" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>258</v>
+      <c r="M149" t="str">
+        <v>2026-02-19T02:49:14.876Z</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Underground</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -7403,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -7414,25 +6536,25 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150" t="s">
-        <v>14</v>
-      </c>
-      <c r="J150" t="s">
-        <v>26</v>
-      </c>
-      <c r="K150" t="s">
-        <v>16</v>
+      <c r="I150" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J150" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K150" t="str">
+        <v>none</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
-      <c r="M150" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>260</v>
+      <c r="M150" t="str">
+        <v>2026-02-19T02:47:27.422Z</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Virtus.pro</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -7444,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -7455,25 +6577,25 @@
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" t="s">
-        <v>26</v>
-      </c>
-      <c r="K151" t="s">
-        <v>16</v>
+      <c r="I151" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J151" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K151" t="str">
+        <v>none</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
-      <c r="M151" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>262</v>
+      <c r="M151" t="str">
+        <v>2026-02-19T02:47:19.575Z</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>ShindeN</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7485,7 +6607,7 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -7496,25 +6618,25 @@
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" t="s">
-        <v>19</v>
-      </c>
-      <c r="K152" t="s">
-        <v>16</v>
+      <c r="I152" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J152" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K152" t="str">
+        <v>none</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
-      <c r="M152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>264</v>
+      <c r="M152" t="str">
+        <v>2026-02-19T02:36:26.535Z</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Permitta</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7526,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -7537,25 +6659,25 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>15</v>
-      </c>
-      <c r="K153" t="s">
-        <v>16</v>
+      <c r="I153" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J153" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K153" t="str">
+        <v>none</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
-      <c r="M153" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>266</v>
+      <c r="M153" t="str">
+        <v>2026-02-19T02:36:17.329Z</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Wildcard</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -7567,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7578,25 +6700,25 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154" t="s">
-        <v>14</v>
-      </c>
-      <c r="J154" t="s">
-        <v>15</v>
-      </c>
-      <c r="K154" t="s">
-        <v>16</v>
+      <c r="I154" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J154" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K154" t="str">
+        <v>none</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
-      <c r="M154" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>268</v>
+      <c r="M154" t="str">
+        <v>2026-02-19T02:34:08.116Z</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Astralis</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7608,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -7619,25 +6741,25 @@
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="s">
-        <v>14</v>
-      </c>
-      <c r="J155" t="s">
-        <v>19</v>
-      </c>
-      <c r="K155" t="s">
-        <v>16</v>
+      <c r="I155" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J155" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K155" t="str">
+        <v>none</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
-      <c r="M155" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>270</v>
+      <c r="M155" t="str">
+        <v>2026-02-19T02:34:01.822Z</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Bad News Eagles</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7649,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7660,25 +6782,25 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" t="s">
-        <v>26</v>
-      </c>
-      <c r="K156" t="s">
-        <v>16</v>
+      <c r="I156" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J156" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K156" t="str">
+        <v>none</v>
       </c>
       <c r="L156">
         <v>0</v>
       </c>
-      <c r="M156" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>272</v>
+      <c r="M156" t="str">
+        <v>2026-02-19T01:45:27.335Z</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>SK</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7690,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -7701,25 +6823,25 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157" t="s">
-        <v>14</v>
-      </c>
-      <c r="J157" t="s">
-        <v>19</v>
-      </c>
-      <c r="K157" t="s">
-        <v>16</v>
+      <c r="I157" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J157" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K157" t="str">
+        <v>none</v>
       </c>
       <c r="L157">
         <v>0</v>
       </c>
-      <c r="M157" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>274</v>
+      <c r="M157" t="str">
+        <v>2026-02-19T01:39:18.535Z</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>ECSTATIC</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7731,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>984.70393701966259</v>
+        <v>984.7039370196626</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -7742,37 +6864,37 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" t="s">
-        <v>19</v>
-      </c>
-      <c r="K158" t="s">
-        <v>16</v>
+      <c r="I158" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J158" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K158" t="str">
+        <v>none</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
-      <c r="M158" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>276</v>
+      <c r="M158" t="str">
+        <v>2026-02-19T01:39:12.540Z</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>TALON</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>984.70393701966259</v>
+        <v>983.9905713816794</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -7783,37 +6905,37 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159" t="s">
-        <v>14</v>
-      </c>
-      <c r="J159" t="s">
-        <v>15</v>
-      </c>
-      <c r="K159" t="s">
-        <v>16</v>
+      <c r="I159" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J159" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K159" t="str">
+        <v>none</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
-      <c r="M159" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>278</v>
+      <c r="M159" t="str">
+        <v>2026-02-28T06:27:14.538Z</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>NAVI Junior</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>984.70393701966259</v>
+        <v>983.2698348870488</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -7824,25 +6946,25 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160" t="s">
-        <v>14</v>
-      </c>
-      <c r="J160" t="s">
-        <v>19</v>
-      </c>
-      <c r="K160" t="s">
-        <v>16</v>
+      <c r="I160" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J160" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K160" t="str">
+        <v>none</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
-      <c r="M160" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>280</v>
+      <c r="M160" t="str">
+        <v>2026-02-28T06:27:03.939Z</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Ninjas in Pyjamas</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7865,25 +6987,25 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" t="s">
-        <v>19</v>
-      </c>
-      <c r="K161" t="s">
-        <v>16</v>
+      <c r="I161" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J161" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K161" t="str">
+        <v>none</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
-      <c r="M161" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>282</v>
+      <c r="M161" t="str">
+        <v>2026-02-19T21:53:46.615Z</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>MOUZ</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7906,25 +7028,25 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" t="s">
-        <v>19</v>
-      </c>
-      <c r="K162" t="s">
-        <v>16</v>
+      <c r="I162" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J162" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K162" t="str">
+        <v>none</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-      <c r="M162" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>284</v>
+      <c r="M162" t="str">
+        <v>2026-02-19T21:53:40.004Z</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Aurora</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7947,25 +7069,25 @@
       <c r="H163">
         <v>0</v>
       </c>
-      <c r="I163" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" t="s">
-        <v>15</v>
-      </c>
-      <c r="K163" t="s">
-        <v>16</v>
+      <c r="I163" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J163" t="str">
+        <v>AS/SIS/ESEA</v>
+      </c>
+      <c r="K163" t="str">
+        <v>none</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
-      <c r="M163" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>286</v>
+      <c r="M163" t="str">
+        <v>2026-02-19T21:53:30.387Z</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Reason</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -7988,25 +7110,25 @@
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164" t="s">
-        <v>14</v>
-      </c>
-      <c r="J164" t="s">
-        <v>19</v>
-      </c>
-      <c r="K164" t="s">
-        <v>16</v>
+      <c r="I164" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J164" t="str">
+        <v>EU</v>
+      </c>
+      <c r="K164" t="str">
+        <v>none</v>
       </c>
       <c r="L164">
         <v>0</v>
       </c>
-      <c r="M164" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>288</v>
+      <c r="M164" t="str">
+        <v>2026-02-19T21:53:23.315Z</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Legacy</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -8018,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>957.51590988244209</v>
+        <v>957.5159098824421</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -8029,26 +7151,25 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="s">
-        <v>14</v>
-      </c>
-      <c r="J165" t="s">
-        <v>26</v>
-      </c>
-      <c r="K165" t="s">
-        <v>16</v>
+      <c r="I165" t="str">
+        <v>Tier 3</v>
+      </c>
+      <c r="J165" t="str">
+        <v>AM</v>
+      </c>
+      <c r="K165" t="str">
+        <v>none</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
-        <v>289</v>
+      <c r="M165" t="str">
+        <v>2026-02-19T01:45:20.251Z</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M55 A57:M84 B56:M56 A86:M165 B85:M85" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M165"/>
   </ignoredErrors>
 </worksheet>
 </file>